--- a/public/template/imb_pecahan_contoh.xlsx
+++ b/public/template/imb_pecahan_contoh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reksasyahputra/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDA143E-77C8-3942-8D06-C7A911A32F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E3558F-B33E-48DB-900A-9A3E8717AFAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{65F7E6E3-2EE3-C344-AE57-C69890640943}"/>
+    <workbookView xWindow="3560" yWindow="1790" windowWidth="14400" windowHeight="7360" xr2:uid="{65F7E6E3-2EE3-C344-AE57-C69890640943}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>No</t>
   </si>
@@ -137,6 +133,15 @@
   </si>
   <si>
     <t>24-06-2003</t>
+  </si>
+  <si>
+    <t>Kabupaten / Kota</t>
+  </si>
+  <si>
+    <t>KOTA BOGOR</t>
+  </si>
+  <si>
+    <t>JUSTINE IMP PECAHAN</t>
   </si>
 </sst>
 </file>
@@ -146,7 +151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,6 +175,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -179,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -202,13 +215,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,6 +258,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,11 +577,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD2661C-75B3-3F45-A41B-AFCFAA45EDF4}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
@@ -566,14 +595,14 @@
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.25" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,32 +639,35 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>5081</v>
       </c>
@@ -654,10 +686,10 @@
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
       <c r="H2" s="5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>23</v>
@@ -668,28 +700,31 @@
       <c r="L2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>26</v>
+      <c r="M2" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="7">
         <v>36</v>
       </c>
-      <c r="P2" s="8">
+      <c r="Q2" s="8">
         <v>51.48</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="10"/>
       <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>5082</v>
       </c>
@@ -722,28 +757,32 @@
       <c r="L3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="7">
+      <c r="P3" s="7">
         <v>36</v>
       </c>
-      <c r="P3" s="8">
+      <c r="Q3" s="8">
         <v>51.48</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="10"/>
       <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>